--- a/backend/wbts.xlsx
+++ b/backend/wbts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -492,1559 +492,799 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>251b5056-f864-455f-ad5d-4fa135966c49</t>
+          <t>c25a7931-18f5-47d7-83c2-3f1b34491f9f</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BLM1x</t>
+          <t>IDMix4+</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:06:46.34</t>
+          <t>00:03:49.25</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8b6be1b4-e89c-4569-b01c-8256767381ca</t>
+          <t>914df7d3-05e9-45cd-a5bd-f7d7f373c8a2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BLM2-</t>
+          <t>LM1x</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:06:26.47</t>
+          <t>00:06:41.03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2388ceae-15e1-4de9-a1be-92c00e595604</t>
+          <t>2c7506af-98bc-42f8-b758-8ed7fc1fee5c</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BLM2x</t>
+          <t>LM2-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:06:13.62</t>
+          <t>00:06:22.91</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cf526f76-8740-4558-9acc-691d2e6ee3bb</t>
+          <t>7aed9cdb-4300-4826-81eb-fdaf93605107</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BLM4-</t>
+          <t>LM2x</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:05:54.12</t>
+          <t>00:06:05.33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2798401f-1343-4719-8cc5-2dbe976b4c4a</t>
+          <t>109ed8c5-9aac-4766-92af-bdb912ec36f7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BLM4x</t>
+          <t>LM4-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:05:47.26</t>
+          <t>00:05:43.16</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01ea8e1c-e50b-413b-84b1-7dd9e5b2ca23</t>
+          <t>879ec95a-9434-4e86-b853-bf303c2198b4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BLW1x</t>
+          <t>LM4x</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:07:28.34</t>
+          <t>00:05:42.75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3cb885fe-7c88-4aa5-b6b7-9f98af8ea577</t>
+          <t>2f1e278b-ce8c-4950-ae85-3c48d08dc58f</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BLW2-</t>
+          <t>LM8+</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:07:27.33</t>
+          <t>00:05:30.24</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>769ab000-a971-412b-a3e5-606c9bd72aa4</t>
+          <t>2bdc6cd3-753f-4835-bff0-4cbf6c48ab60</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BLW2x</t>
+          <t>LTAID4+</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:06:54.41</t>
+          <t>00:03:55.70</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0ff7aff9-f38d-4ef7-b9f6-fc053549fdeb</t>
+          <t>e50d9603-6681-4029-b377-0363b086be99</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BLW4x</t>
+          <t>LTAMix2x</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:06:25.96</t>
+          <t>00:03:27.98</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1e02b205-c37c-4a86-bc86-1c1fd8a00099</t>
+          <t>24ba8349-b957-4333-a584-ca18cf6e1442</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BM1x</t>
+          <t>LTAMix4+</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:06:42.97</t>
+          <t>00:03:13.76</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cc302eff-f9dd-4ce3-a78e-86b5733d02f5</t>
+          <t>e437ca31-336d-4330-b797-6c0bf86ee68a</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BM2-</t>
+          <t>LW1x</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:06:20.06</t>
+          <t>00:07:23.36</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>49c0806e-72c4-4166-86f5-9488df7f2729</t>
+          <t>f59b3872-8645-4abd-badf-01b9bb07eca3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BM2x</t>
+          <t>LW2-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:06:07.57</t>
+          <t>00:07:18.32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>b7359d5c-0390-47bb-bcba-f6c6d0639909</t>
+          <t>89969b31-db5e-4135-be85-c6da064e6257</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BM4+</t>
+          <t>LW2x</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:06:03.01</t>
+          <t>00:06:41.36</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0d7b3f5f-e4b7-4bfe-b6f9-26dcd5972af5</t>
+          <t>7e050631-20c0-44b7-9a93-ce25b2b098e7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BM4-</t>
+          <t>LW4-</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:05:44.38</t>
+          <t>00:06:36.40</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>30b979c0-2c46-47c8-8e77-60be5beb6831</t>
+          <t>ccc9499e-9238-4c06-9b87-7c945ef8951f</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BM4x</t>
+          <t>LW4x</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>00:05:39.62</t>
+          <t>00:06:15.95</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>e30b5a68-5745-4dae-8be4-9069ff8d2975</t>
+          <t>d446cdf6-ae5c-4c5e-851a-5f5df88740a6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BM8+</t>
+          <t>M1x</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>00:05:22.48</t>
+          <t>00:06:30.74</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>89b421c8-134f-4332-bb0f-ef8968b69337</t>
+          <t>9ef82ff3-d0b1-4789-bb68-75f4892d239a</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BW1x</t>
+          <t>M2+</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>00:07:27.23</t>
+          <t>00:06:33.26</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>379a3a4f-bb50-4dc7-b735-f416e4b44c2a</t>
+          <t>03e9d519-daef-4263-bfe3-f4887757ac7f</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BW2-</t>
+          <t>M2-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>00:06:58.68</t>
+          <t>00:06:08.50</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>86237ce6-d43d-4677-b8a7-c1685d1b5ca5</t>
+          <t>11b69304-d210-47f0-bdcd-a55cd31c711c</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BW2x</t>
+          <t>M2x</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>00:06:47.03</t>
+          <t>00:05:59.72</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>a2ddb88c-a92a-42ab-b35a-a2e70da93c6f</t>
+          <t>6cbbfaa4-a523-4a32-8242-b08ee505033f</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BW4+</t>
+          <t>M4+</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>00:07:02.22</t>
+          <t>00:05:58.96</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ff90611e-b0f3-4879-9e2a-dbee3f29c04a</t>
+          <t>ccbd7449-18e5-4033-bab3-c306748f818b</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BW4-</t>
+          <t>M4-</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>00:06:26.62</t>
+          <t>00:05:37.86</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>30589144-4733-4245-9f92-45a2f82fe033</t>
+          <t>ae58697c-5241-49a2-b0b0-96b3324aff86</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BW4x</t>
+          <t>M4x</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>00:06:19.10</t>
+          <t>00:05:32.03</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>53b974be-5df8-4c93-810a-af2fe9a8ea09</t>
+          <t>6c85a89f-4200-4515-af9d-ded88fc0199e</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BW8+</t>
+          <t>M8+</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>00:06:00.13</t>
+          <t>00:05:18.68</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>c25a7931-18f5-47d7-83c2-3f1b34491f9f</t>
+          <t>312880e9-414a-49d3-a2e5-74656b47a895</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>IDMix4+</t>
+          <t>PR1 M1x</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>00:03:49.25</t>
+          <t>00:08:55.21</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>d2aa67aa-ed08-43df-afd9-96b704fef792</t>
+          <t>b66dbc33-3c0f-476f-9c96-ff0f30a375be</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>JM1x</t>
+          <t>PR1 W1x</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>00:06:45.45</t>
+          <t>00:09:50.39</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1b95b81c-97c1-4173-b5d8-470db6fb9b77</t>
+          <t>1b341808-afb2-421b-88d4-55bddbbe1f9b</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>JM2+</t>
+          <t>PR2 M1x</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>00:07:10.01</t>
+          <t>00:08:20.61</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>e8be21ca-b2bf-4113-9a3f-c986bf0c0645</t>
+          <t>86f2ec76-82c1-4131-b5c1-5e22944ef6bb</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>JM2-</t>
+          <t>PR2 Mix2x</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>00:06:27.91</t>
+          <t>00:08:06.21</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4f82df73-013c-4392-ba00-bb67207b9432</t>
+          <t>f5af0b4f-1c4b-4985-9e96-aa60ff96181c</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>JM2x</t>
+          <t>PR2 W1x</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>00:06:18.19</t>
+          <t>00:09:14.65</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>641752ea-819d-45d2-96be-903b1178893c</t>
+          <t>678cb274-5641-467a-8dfd-0d3f603c7cdc</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>JM4+</t>
+          <t>PR3 M2-</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>00:06:11.96</t>
+          <t>00:06:52.08</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2781e047-da8d-4692-be9b-d33b36ede7ce</t>
+          <t>81afaed4-7140-45bf-894c-ea218f00e812</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JM4-</t>
+          <t>PR3 Mix2x</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>00:05:47.73</t>
+          <t>00:07:28.95</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1fefd9e4-d0f1-4a86-b35e-058561a32260</t>
+          <t>5fe334b0-478d-4cdf-badd-4b9b69e0b8fd</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JM4x</t>
+          <t>PR3 Mix4+</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>00:05:46.49</t>
+          <t>00:06:48.34</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>43a28181-9c4f-4ab9-b516-74b4a4310b79</t>
+          <t>1216b245-5a24-4ea8-8d53-e8eebf5dc88c</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>JM8+</t>
+          <t>PR3 W2-</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>00:05:35.93</t>
+          <t>00:07:39.30</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4739d01a-43b7-4233-b973-ad3a84e9a90f</t>
+          <t>3c988d84-c61a-4680-812b-6169cc723111</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>JW1x</t>
+          <t>TAMix2x</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>00:07:31.50</t>
+          <t>00:03:52.16</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>80349f10-0909-4ff6-9dda-c4adb268e614</t>
+          <t>bcb0030d-baf2-4401-b90c-37914eacb76e</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>JW2-</t>
+          <t>W1x</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>00:07:15.53</t>
+          <t>00:07:07.71</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>dc637d37-b64b-4143-8de0-93952ab87132</t>
+          <t>19a8df01-d7dc-4942-b744-a4dd5763bfe4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>JW2x</t>
+          <t>W2-</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>00:07:03.18</t>
+          <t>00:06:47.41</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>814a968d-30f5-4c55-a324-cbdd26a00446</t>
+          <t>cc875fb7-439a-4710-a287-fb8fd22f9ebb</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>JW4+</t>
+          <t>W2x</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>00:06:58.18</t>
+          <t>00:06:37.31</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>c85453f1-551d-44fb-907c-93ab6d2cb3a8</t>
+          <t>8100a6af-bebb-426a-9ab8-1e65eecc0953</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>JW4-</t>
+          <t>W4+</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>00:06:37.89</t>
+          <t>00:06:43.86</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3625d487-1ee2-47b2-bf86-b01d8030b6aa</t>
+          <t>8912e941-2bd2-4300-bd1d-5c9321db504b</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>JW4x</t>
+          <t>W4-</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>00:06:23.85</t>
+          <t>00:06:14.36</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2d2e0fd2-6055-4e47-b98d-786343b43c2b</t>
+          <t>db280a61-62ce-416a-83b5-924d6499c4fb</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>JW8+</t>
+          <t>W4x</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>00:06:13.04</t>
+          <t>00:06:05.13</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>914df7d3-05e9-45cd-a5bd-f7d7f373c8a2</t>
+          <t>b7a860f9-a9ad-487b-a433-7e33af5b21ae</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LM1x</t>
+          <t>W8+</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
-        <is>
-          <t>00:06:41.03</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2c7506af-98bc-42f8-b758-8ed7fc1fee5c</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>LM2-</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>00:06:22.91</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>7aed9cdb-4300-4826-81eb-fdaf93605107</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>LM2x</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>00:06:05.33</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>109ed8c5-9aac-4766-92af-bdb912ec36f7</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>LM4-</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>00:05:43.16</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>879ec95a-9434-4e86-b853-bf303c2198b4</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>LM4x</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>00:05:42.75</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2f1e278b-ce8c-4950-ae85-3c48d08dc58f</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>LM8+</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>00:05:30.24</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2bdc6cd3-753f-4835-bff0-4cbf6c48ab60</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>LTAID4+</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>00:03:55.70</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>e50d9603-6681-4029-b377-0363b086be99</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>LTAMix2x</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>00:03:27.98</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>24ba8349-b957-4333-a584-ca18cf6e1442</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>LTAMix4+</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>00:03:13.76</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>e437ca31-336d-4330-b797-6c0bf86ee68a</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>LW1x</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>00:07:23.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>f59b3872-8645-4abd-badf-01b9bb07eca3</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>LW2-</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>00:07:18.32</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>89969b31-db5e-4135-be85-c6da064e6257</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>LW2x</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>00:06:41.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>7e050631-20c0-44b7-9a93-ce25b2b098e7</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>LW4-</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>00:06:36.40</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ccc9499e-9238-4c06-9b87-7c945ef8951f</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>LW4x</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>00:06:15.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>d446cdf6-ae5c-4c5e-851a-5f5df88740a6</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>M1x</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>00:06:30.74</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>9ef82ff3-d0b1-4789-bb68-75f4892d239a</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>M2+</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>00:06:33.26</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>03e9d519-daef-4263-bfe3-f4887757ac7f</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>M2-</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>00:06:08.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>11b69304-d210-47f0-bdcd-a55cd31c711c</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>M2x</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>00:05:59.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>6cbbfaa4-a523-4a32-8242-b08ee505033f</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>M4+</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>00:05:58.96</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ccbd7449-18e5-4033-bab3-c306748f818b</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>M4-</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>00:05:37.86</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ae58697c-5241-49a2-b0b0-96b3324aff86</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>M4x</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>00:05:32.03</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>6c85a89f-4200-4515-af9d-ded88fc0199e</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>M8+</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>00:05:18.68</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>312880e9-414a-49d3-a2e5-74656b47a895</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>PR1 M1x</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>00:08:55.21</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>b66dbc33-3c0f-476f-9c96-ff0f30a375be</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>PR1 W1x</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>00:09:50.39</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1b341808-afb2-421b-88d4-55bddbbe1f9b</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>PR2 M1x</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>00:08:20.61</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>86f2ec76-82c1-4131-b5c1-5e22944ef6bb</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>PR2 Mix2x</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>00:08:06.21</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>f5af0b4f-1c4b-4985-9e96-aa60ff96181c</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>PR2 W1x</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>00:09:14.65</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>678cb274-5641-467a-8dfd-0d3f603c7cdc</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>PR3 M2-</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>00:06:52.08</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>81afaed4-7140-45bf-894c-ea218f00e812</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>PR3 Mix2x</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>00:07:28.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>5fe334b0-478d-4cdf-badd-4b9b69e0b8fd</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>PR3 Mix4+</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>00:06:48.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1216b245-5a24-4ea8-8d53-e8eebf5dc88c</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>PR3 W2-</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>00:07:39.30</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>3c988d84-c61a-4680-812b-6169cc723111</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>TAMix2x</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>00:03:52.16</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>bcb0030d-baf2-4401-b90c-37914eacb76e</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>W1x</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>00:07:07.71</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>19a8df01-d7dc-4942-b744-a4dd5763bfe4</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>W2-</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>00:06:47.41</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>cc875fb7-439a-4710-a287-fb8fd22f9ebb</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>W2x</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>00:06:37.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>8100a6af-bebb-426a-9ab8-1e65eecc0953</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>W4+</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>00:06:43.86</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>8912e941-2bd2-4300-bd1d-5c9321db504b</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>W4-</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>00:06:14.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>db280a61-62ce-416a-83b5-924d6499c4fb</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>W4x</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>00:06:05.13</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>b7a860f9-a9ad-487b-a433-7e33af5b21ae</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>W8+</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
         <is>
           <t>00:05:52.99</t>
         </is>
